--- a/experiment 1.xlsx
+++ b/experiment 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Classwork\URIS\HybridSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CD41C6-E6C1-488C-A25B-0D3534517784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DDA4D-6A78-4C5F-B4FF-7DE7F1CAD9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>VP-Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Part 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GloVe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +64,26 @@
   </si>
   <si>
     <t>VirusShare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trial 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trial 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE5EA86-45EB-45B4-9882-E88460AE8957}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -440,187 +452,570 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>630</v>
-      </c>
-      <c r="F3" s="1">
-        <v>909</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2235</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
       <c r="E4" s="1">
-        <v>761</v>
+        <v>630</v>
       </c>
       <c r="F4" s="1">
-        <v>204</v>
+        <v>909</v>
       </c>
       <c r="G4" s="1">
-        <v>1439</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>621</v>
+        <v>761</v>
       </c>
       <c r="F5" s="1">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="G5" s="1">
-        <v>1386</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>621</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1386</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1678</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1730</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2322</v>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>749</v>
+        <v>1678</v>
       </c>
       <c r="F8" s="1">
-        <v>194</v>
+        <v>1730</v>
       </c>
       <c r="G8" s="1">
-        <v>1459</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>749</v>
+      </c>
+      <c r="F9" s="1">
+        <v>194</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>24</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>428</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>22</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <v>1385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>345</v>
+      </c>
+      <c r="D14" s="1">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2831</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3151</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>265</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1261</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1031</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>344</v>
+      </c>
+      <c r="D16" s="1">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1">
+        <v>734</v>
+      </c>
+      <c r="F16">
+        <v>250</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1">
+        <v>360</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2867</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3258</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>266</v>
+      </c>
+      <c r="D19" s="1">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1250</v>
+      </c>
+      <c r="F19" s="1">
+        <v>996</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>359</v>
+      </c>
+      <c r="D20" s="1">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1">
+        <v>766</v>
+      </c>
+      <c r="F20" s="1">
+        <v>281</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1">
+        <v>657</v>
+      </c>
+      <c r="D24" s="1">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5339</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5626</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5083</v>
+      </c>
+      <c r="D25" s="1">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2974</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3380</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3897</v>
+      </c>
+      <c r="D26" s="1">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1261</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1938</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1">
+        <v>784</v>
+      </c>
+      <c r="D28" s="1">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5359</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5670</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4900</v>
+      </c>
+      <c r="D29" s="1">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2902</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3213</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3913</v>
+      </c>
+      <c r="D30" s="1">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1327</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2043</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3716</v>
       </c>
     </row>
   </sheetData>
